--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.8327543159685</v>
+        <v>1.911942</v>
       </c>
       <c r="H2">
-        <v>1.8327543159685</v>
+        <v>5.735825999999999</v>
       </c>
       <c r="I2">
-        <v>0.2210382877632217</v>
+        <v>0.2156379149120961</v>
       </c>
       <c r="J2">
-        <v>0.2210382877632217</v>
+        <v>0.2156379149120961</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>63.8907605902015</v>
+        <v>102.8289443333334</v>
       </c>
       <c r="N2">
-        <v>63.8907605902015</v>
+        <v>308.486833</v>
       </c>
       <c r="O2">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302444</v>
       </c>
       <c r="P2">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302443</v>
       </c>
       <c r="Q2">
-        <v>117.096067222202</v>
+        <v>196.602977486562</v>
       </c>
       <c r="R2">
-        <v>117.096067222202</v>
+        <v>1769.426797379058</v>
       </c>
       <c r="S2">
-        <v>0.0981009074355603</v>
+        <v>0.1198757131003964</v>
       </c>
       <c r="T2">
-        <v>0.0981009074355603</v>
+        <v>0.1198757131003964</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.8327543159685</v>
+        <v>1.911942</v>
       </c>
       <c r="H3">
-        <v>1.8327543159685</v>
+        <v>5.735825999999999</v>
       </c>
       <c r="I3">
-        <v>0.2210382877632217</v>
+        <v>0.2156379149120961</v>
       </c>
       <c r="J3">
-        <v>0.2210382877632217</v>
+        <v>0.2156379149120961</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>61.6107436040296</v>
+        <v>63.66262833333334</v>
       </c>
       <c r="N3">
-        <v>61.6107436040296</v>
+        <v>190.987885</v>
       </c>
       <c r="O3">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="P3">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="Q3">
-        <v>112.9173562503139</v>
+        <v>121.71925294089</v>
       </c>
       <c r="R3">
-        <v>112.9173562503139</v>
+        <v>1095.47327646801</v>
       </c>
       <c r="S3">
-        <v>0.09460006109650047</v>
+        <v>0.07421648660094189</v>
       </c>
       <c r="T3">
-        <v>0.09460006109650047</v>
+        <v>0.07421648660094191</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.8327543159685</v>
+        <v>1.911942</v>
       </c>
       <c r="H4">
-        <v>1.8327543159685</v>
+        <v>5.735825999999999</v>
       </c>
       <c r="I4">
-        <v>0.2210382877632217</v>
+        <v>0.2156379149120961</v>
       </c>
       <c r="J4">
-        <v>0.2210382877632217</v>
+        <v>0.2156379149120961</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.455414186209</v>
+        <v>18.481835</v>
       </c>
       <c r="N4">
-        <v>18.455414186209</v>
+        <v>55.445505</v>
       </c>
       <c r="O4">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555507</v>
       </c>
       <c r="P4">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555505</v>
       </c>
       <c r="Q4">
-        <v>33.82424000276083</v>
+        <v>35.33619657357</v>
       </c>
       <c r="R4">
-        <v>33.82424000276083</v>
+        <v>318.02576916213</v>
       </c>
       <c r="S4">
-        <v>0.02833731923116093</v>
+        <v>0.02154571521075778</v>
       </c>
       <c r="T4">
-        <v>0.02833731923116093</v>
+        <v>0.02154571521075778</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.79437048547617</v>
+        <v>2.898253666666667</v>
       </c>
       <c r="H5">
-        <v>2.79437048547617</v>
+        <v>8.694761</v>
       </c>
       <c r="I5">
-        <v>0.3370134567978565</v>
+        <v>0.3268788371019294</v>
       </c>
       <c r="J5">
-        <v>0.3370134567978565</v>
+        <v>0.3268788371019295</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.8907605902015</v>
+        <v>102.8289443333334</v>
       </c>
       <c r="N5">
-        <v>63.8907605902015</v>
+        <v>308.486833</v>
       </c>
       <c r="O5">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302444</v>
       </c>
       <c r="P5">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302443</v>
       </c>
       <c r="Q5">
-        <v>178.5344556878831</v>
+        <v>298.024364953546</v>
       </c>
       <c r="R5">
-        <v>178.5344556878831</v>
+        <v>2682.219284581913</v>
       </c>
       <c r="S5">
-        <v>0.1495728466974026</v>
+        <v>0.181715881045296</v>
       </c>
       <c r="T5">
-        <v>0.1495728466974026</v>
+        <v>0.181715881045296</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.79437048547617</v>
+        <v>2.898253666666667</v>
       </c>
       <c r="H6">
-        <v>2.79437048547617</v>
+        <v>8.694761</v>
       </c>
       <c r="I6">
-        <v>0.3370134567978565</v>
+        <v>0.3268788371019294</v>
       </c>
       <c r="J6">
-        <v>0.3370134567978565</v>
+        <v>0.3268788371019295</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>61.6107436040296</v>
+        <v>63.66262833333334</v>
       </c>
       <c r="N6">
-        <v>61.6107436040296</v>
+        <v>190.987885</v>
       </c>
       <c r="O6">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="P6">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="Q6">
-        <v>172.16324351534</v>
+        <v>184.5104459967206</v>
       </c>
       <c r="R6">
-        <v>172.16324351534</v>
+        <v>1660.594013970485</v>
       </c>
       <c r="S6">
-        <v>0.1442351636272708</v>
+        <v>0.1125024736201712</v>
       </c>
       <c r="T6">
-        <v>0.1442351636272708</v>
+        <v>0.1125024736201712</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.79437048547617</v>
+        <v>2.898253666666667</v>
       </c>
       <c r="H7">
-        <v>2.79437048547617</v>
+        <v>8.694761</v>
       </c>
       <c r="I7">
-        <v>0.3370134567978565</v>
+        <v>0.3268788371019294</v>
       </c>
       <c r="J7">
-        <v>0.3370134567978565</v>
+        <v>0.3268788371019295</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.455414186209</v>
+        <v>18.481835</v>
       </c>
       <c r="N7">
-        <v>18.455414186209</v>
+        <v>55.445505</v>
       </c>
       <c r="O7">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555507</v>
       </c>
       <c r="P7">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555505</v>
       </c>
       <c r="Q7">
-        <v>51.57126469918065</v>
+        <v>53.56504605547833</v>
       </c>
       <c r="R7">
-        <v>51.57126469918065</v>
+        <v>482.085414499305</v>
       </c>
       <c r="S7">
-        <v>0.04320544647318312</v>
+        <v>0.03266048243646225</v>
       </c>
       <c r="T7">
-        <v>0.04320544647318312</v>
+        <v>0.03266048243646225</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.6644446570184</v>
+        <v>4.056250666666667</v>
       </c>
       <c r="H8">
-        <v>3.6644446570184</v>
+        <v>12.168752</v>
       </c>
       <c r="I8">
-        <v>0.4419482554389219</v>
+        <v>0.4574832479859744</v>
       </c>
       <c r="J8">
-        <v>0.4419482554389219</v>
+        <v>0.4574832479859745</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>63.8907605902015</v>
+        <v>102.8289443333334</v>
       </c>
       <c r="N8">
-        <v>63.8907605902015</v>
+        <v>308.486833</v>
       </c>
       <c r="O8">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302444</v>
       </c>
       <c r="P8">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302443</v>
       </c>
       <c r="Q8">
-        <v>234.1241562776057</v>
+        <v>417.099974004713</v>
       </c>
       <c r="R8">
-        <v>234.1241562776057</v>
+        <v>3753.899766042417</v>
       </c>
       <c r="S8">
-        <v>0.1961448640271946</v>
+        <v>0.2543204454845519</v>
       </c>
       <c r="T8">
-        <v>0.1961448640271946</v>
+        <v>0.2543204454845519</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.6644446570184</v>
+        <v>4.056250666666667</v>
       </c>
       <c r="H9">
-        <v>3.6644446570184</v>
+        <v>12.168752</v>
       </c>
       <c r="I9">
-        <v>0.4419482554389219</v>
+        <v>0.4574832479859744</v>
       </c>
       <c r="J9">
-        <v>0.4419482554389219</v>
+        <v>0.4574832479859745</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.6107436040296</v>
+        <v>63.66262833333334</v>
       </c>
       <c r="N9">
-        <v>61.6107436040296</v>
+        <v>190.987885</v>
       </c>
       <c r="O9">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="P9">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="Q9">
-        <v>225.7691602147168</v>
+        <v>258.2315786188356</v>
       </c>
       <c r="R9">
-        <v>225.7691602147168</v>
+        <v>2324.08420756952</v>
       </c>
       <c r="S9">
-        <v>0.1891452037069672</v>
+        <v>0.1574528271530875</v>
       </c>
       <c r="T9">
-        <v>0.1891452037069672</v>
+        <v>0.1574528271530875</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.6644446570184</v>
+        <v>4.056250666666667</v>
       </c>
       <c r="H10">
-        <v>3.6644446570184</v>
+        <v>12.168752</v>
       </c>
       <c r="I10">
-        <v>0.4419482554389219</v>
+        <v>0.4574832479859744</v>
       </c>
       <c r="J10">
-        <v>0.4419482554389219</v>
+        <v>0.4574832479859745</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.455414186209</v>
+        <v>18.481835</v>
       </c>
       <c r="N10">
-        <v>18.455414186209</v>
+        <v>55.445505</v>
       </c>
       <c r="O10">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555507</v>
       </c>
       <c r="P10">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555505</v>
       </c>
       <c r="Q10">
-        <v>67.62884390771517</v>
+        <v>74.96695553997334</v>
       </c>
       <c r="R10">
-        <v>67.62884390771517</v>
+        <v>674.7025998597601</v>
       </c>
       <c r="S10">
-        <v>0.05665818770476006</v>
+        <v>0.04570997534833503</v>
       </c>
       <c r="T10">
-        <v>0.05665818770476006</v>
+        <v>0.04570997534833503</v>
       </c>
     </row>
   </sheetData>
